--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,22 +49,34 @@
     <t>worst</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>creepy</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -76,49 +88,52 @@
     <t>disturbing</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>frightening</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>shit</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>serious</t>
+    <t>dark</t>
   </si>
   <si>
     <t>fake</t>
@@ -130,46 +145,43 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>new</t>
+    <t>first</t>
   </si>
   <si>
     <t>true</t>
@@ -178,16 +190,22 @@
     <t>social</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>’</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -551,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -691,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -741,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>0.8</v>
+      </c>
+      <c r="L7">
         <v>40</v>
       </c>
-      <c r="K7">
-        <v>0.84</v>
-      </c>
-      <c r="L7">
-        <v>42</v>
-      </c>
       <c r="M7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9134615384615384</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.7017543859649122</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,31 +956,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L9">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <v>37</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>20</v>
-      </c>
-      <c r="M9">
-        <v>20</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>0.5666666666666667</v>
@@ -1070,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.5600000000000001</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.4444444444444444</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1170,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.3157894736842105</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1262,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,37 +1288,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.1463414634146341</v>
+        <v>0.1875</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5294117647058824</v>
+        <v>0.575</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.1458333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4927536231884058</v>
+        <v>0.5625</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.1355932203389831</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4782608695652174</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.09859154929577464</v>
+        <v>0.075591985428051</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>64</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4615384615384616</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1488,31 +1506,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.08105646630236794</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>89</v>
-      </c>
-      <c r="M20">
-        <v>89</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1009</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,7 +1538,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4375</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -1538,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.02409638554216868</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>648</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1588,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4102564102564102</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.02120141342756184</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1612,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>277</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,38 +1638,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>8</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23">
-        <v>0.01296296296296296</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1662,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>533</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1670,13 +1688,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1688,28 +1706,28 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.01280409731113956</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M24">
         <v>10</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>771</v>
@@ -1720,13 +1738,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3829787234042553</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1738,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.004032258064516129</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="L25">
         <v>7</v>
@@ -1762,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1729</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1770,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3529411764705883</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1788,7 +1806,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26">
+        <v>0.004608294930875576</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1728</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1796,13 +1838,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3461538461538461</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1814,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1822,13 +1864,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3214285714285715</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1840,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1848,13 +1890,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1866,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1874,13 +1916,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1538461538461539</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1892,7 +1934,137 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.375</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
